--- a/xlsx/Varnish cache_intext.xlsx
+++ b/xlsx/Varnish cache_intext.xlsx
@@ -29,19 +29,19 @@
     <t>软件设计</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_Varnish cache</t>
+    <t>政策_政策_维基百科_Varnish cache</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E7%89%88%E6%9C%AC%E9%80%B1%E6%9C%9F</t>
   </si>
   <si>
-    <t>軟件版本週期</t>
+    <t>软件版本周期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%B5%B1%E5%B9%B3%E5%8F%B0</t>
   </si>
   <si>
-    <t>系統平台</t>
+    <t>系统平台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Unix</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/C%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>C語言</t>
+    <t>C语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E5%8F%96</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/BSD%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>BSD許可證</t>
+    <t>BSD许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>網站</t>
+    <t>网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E6%86%B6%E9%AB%94</t>
   </si>
   <si>
-    <t>記憶體</t>
+    <t>记忆体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AC%E7%A2%9F</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A8%98%E6%86%B6%E9%AB%94</t>
   </si>
   <si>
-    <t>主記憶體</t>
+    <t>主记忆体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CPU</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>作業系統</t>
+    <t>作业系统</t>
   </si>
   <si>
     <t>http://varnish.projects.linpro.no/wiki/ArchitectNotes</t>
@@ -155,7 +155,7 @@
     <t>https://web.archive.org/web/20070816082455/http://varnish.projects.linpro.no/wiki/ArchitectNotes</t>
   </si>
   <si>
-    <t>存檔</t>
+    <t>存档</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E7%90%86%E4%BC%BA%E6%9C%8D%E5%99%A8</t>
